--- a/数据整理/stocks/A股/上证主板/603868-飞科电器.xlsx
+++ b/数据整理/stocks/A股/上证主板/603868-飞科电器.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>64.26</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>4.15</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2581</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>3</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>94.17</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>4.23</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2525</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>10</v>
       </c>
     </row>
@@ -553,7 +583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,15 +604,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -604,15 +644,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>63.21</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.77</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2922</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>9</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603868-飞科电器.xlsx
+++ b/数据整理/stocks/A股/上证主板/603868-飞科电器.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -669,4 +670,136 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>450001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国富中国收益混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.18</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>63.07</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4896</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>450011</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国富研究精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2196</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603868-飞科电器.xlsx
+++ b/数据整理/stocks/A股/上证主板/603868-飞科电器.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -802,4 +803,136 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>450001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国富中国收益混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>62.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5345</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>450011</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国富研究精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1837</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603868-飞科电器.xlsx
+++ b/数据整理/stocks/A股/上证主板/603868-飞科电器.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -935,4 +936,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603868-飞科电器.xlsx
+++ b/数据整理/stocks/A股/上证主板/603868-飞科电器.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -944,7 +945,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -955,17 +956,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -975,14 +996,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>450011</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国富研究精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2696</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.72</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="3">
@@ -991,14 +1086,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="4">
@@ -1007,14 +1102,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.29</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="5">
@@ -1023,13 +1118,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.51</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603868-飞科电器.xlsx
+++ b/数据整理/stocks/A股/上证主板/603868-飞科电器.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1039,7 +1040,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1050,17 +1051,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1070,14 +1091,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.27</v>
+          <t>960021</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富兰克林国海潜力组合混合H 人民币</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>32.27</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6974</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1086,14 +1129,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.72</v>
+          <t>450003</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富兰克林国海潜力组合混合A 人民币</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>32.27</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6974</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1102,14 +1167,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>450001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国富中国收益混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>22.23</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>61.42</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9403</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.71</v>
       </c>
     </row>
     <row r="5">
@@ -1118,14 +1205,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+          <t>012510</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富兰克林国海优质企业一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4696</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.29</v>
       </c>
     </row>
     <row r="6">
@@ -1134,13 +1243,357 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>010271</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富兰克林国海价值成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2744</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010272</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富兰克林国海价值成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1015</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>400001</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东方龙混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>84.04</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1011</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012511</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富兰克林国海优质企业一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014014</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商臻选平衡混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>40.88</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>014015</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商臻选平衡混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>40.88</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>2</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.51</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603868-飞科电器.xlsx
+++ b/数据整理/stocks/A股/上证主板/603868-飞科电器.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1476,7 +1477,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1487,17 +1488,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1507,14 +1528,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>10</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.31</v>
+          <t>450001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国富中国收益混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>20.28</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>63.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8335</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1523,14 +1566,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.27</v>
+          <t>400003</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4543</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1539,14 +1604,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.72</v>
+          <t>010271</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富兰克林国海价值成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1856</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1555,14 +1642,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.71</v>
+          <t>010617</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴业消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.20</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1484</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1571,14 +1680,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.29</v>
+          <t>400001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方龙混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1436</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -1587,13 +1718,981 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>007470</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博道叁佰智航股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.14</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1399</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000063</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长盛电子信息主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>73.07</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1274</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010618</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>兴业消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.20</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0856</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008318</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博道久航混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0733</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006048</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长城中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0693</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010272</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富兰克林国海价值成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0660</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001463</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>光大保德信一带一路战略主题混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>82.40</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0653</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009937</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>东方欣益一年持有期偏债混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>27.79</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0644</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007471</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博道叁佰智航股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0620</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010703</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>财通智选消费股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0597</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006160</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博道启航混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0519</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002067</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>诺安精选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>48.83</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0482</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007047</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>长城核心优势混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>68.05</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0461</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007413</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>长城中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010704</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>财通智选消费股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008319</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>博道久航混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010253</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>兴银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>84.71</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011205</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>兴银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>84.71</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009938</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>东方欣益一年持有期偏债混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>27.79</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006161</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>博道启航混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002773</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>光大保德信铭鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>83.65</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002774</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>光大保德信铭鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>83.65</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>27</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.86</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.31</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>2</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.51</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603868-飞科电器.xlsx
+++ b/数据整理/stocks/A股/上证主板/603868-飞科电器.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D2" t="n">
-        <v>2.86</v>
+        <v>9.58</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="D3" t="n">
-        <v>5.31</v>
+        <v>2.86</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>0.27</v>
+        <v>5.31</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.72</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>0.29</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>2</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.51</v>
       </c>
     </row>
@@ -600,6 +617,1504 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519772</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银新生活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>49.60</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.55</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2419</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519915</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>56.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.57</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5347</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006179</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国品质生活混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>36.61</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.15</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1093</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>450001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国富中国收益混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>20.62</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>63.10</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6681</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008901</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国内需增长混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>18.23</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.85</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6016</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011309</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国消费主题混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>17.74</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>80.57</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4861</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010409</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国消费精选30股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>14.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.47</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4483</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>400003</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方精选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.94</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3615</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>450011</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国富研究精选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3544</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013047</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国品质生活混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>82.15</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2472</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010608</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量领先混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>22.70</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2179</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>460005</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华泰柏瑞价值增长混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1800</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>660012</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>农银消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>70.32</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1395</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000063</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长盛电子信息主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>84.81</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1296</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010271</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富兰克林国海价值成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1245</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>400001</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>东方龙混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>85.52</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0943</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001463</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>光大保德信一带一路战略主题混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0937</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010617</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>兴业消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>83.91</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0788</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010618</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>兴业消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>83.91</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0728</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>014794</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富国远见优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.82</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0703</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010272</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富兰克林国海价值成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0676</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004945</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>长信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0482</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008260</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长城价值优选混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>85.85</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0380</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>007047</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>长城核心优势混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>70.40</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009937</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>东方欣益一年持有期偏债混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>20.97</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010609</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量领先混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>014795</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>富国远见优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>88.82</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>000649</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>长城久鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>87.25</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005492</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>农银汇理研究驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>62.55</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011824</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>浙商汇金量化臻选股票A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>014861</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>申万菱信双禧混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>30.74</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009938</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>东方欣益一年持有期偏债混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>20.97</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011825</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>浙商汇金量化臻选股票C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>013045</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>富国内需增长混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>83.85</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>013881</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>长信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010037</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华泰柏瑞价值增长混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>014862</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>申万菱信双禧混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>30.74</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>960033</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>农银消费主题混合H</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>70.32</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1681,7 +3196,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2117,7 +3632,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2204,138 +3719,6 @@
       </c>
       <c r="H2" t="n">
         <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>450001</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>国富中国收益混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>13.10</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>62.93</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.08</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.5345</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>450011</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>国富研究精选混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3.54</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.00</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.19</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1837</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2410,26 +3793,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>12.18</t>
+          <t>13.10</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>63.07</t>
+          <t>62.93</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.02</t>
+          <t>4.08</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4896</t>
+          <t>0.5345</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -2448,26 +3831,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.19</t>
+          <t>3.54</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.36</t>
+          <t>93.00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.24</t>
+          <t>5.19</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2196</t>
+          <t>0.1837</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2476,6 +3859,138 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>450001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国富中国收益混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.18</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>63.07</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4896</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>450011</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国富研究精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2196</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2569,7 +4084,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/603868-飞科电器.xlsx
+++ b/数据整理/stocks/A股/上证主板/603868-飞科电器.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D2" t="n">
-        <v>9.58</v>
+        <v>6.72</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D3" t="n">
-        <v>2.86</v>
+        <v>9.58</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="D4" t="n">
-        <v>5.31</v>
+        <v>2.86</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D5" t="n">
-        <v>0.27</v>
+        <v>5.31</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.72</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>0.29</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>2</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.51</v>
       </c>
     </row>
@@ -616,7 +633,651 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>450001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国富中国收益混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>64.26</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2581</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>450011</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国富研究精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2525</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519772</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银新生活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>50.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.98</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9652</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011099</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国价值创造混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>53.18</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4359</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519915</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>62.34</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4026</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012255</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国高质量混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>21.29</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6025</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008901</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国内需增长混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>18.52</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.38</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4871</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011309</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国消费主题混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>20.14</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.81</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4532</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010618</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>兴业消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>79.88</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0995</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011100</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国价值创造混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0958</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010617</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>兴业消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>79.88</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0639</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>014794</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国远见优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0596</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013045</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国内需增长混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.38</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014795</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国远见优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2114,7 +2775,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3196,7 +3857,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3632,7 +4293,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3719,138 +4380,6 @@
       </c>
       <c r="H2" t="n">
         <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>450001</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>国富中国收益混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>13.10</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>62.93</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.08</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.5345</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>450011</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>国富研究精选混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3.54</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.00</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.19</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1837</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -3925,26 +4454,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>12.18</t>
+          <t>13.10</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>63.07</t>
+          <t>62.93</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.02</t>
+          <t>4.08</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4896</t>
+          <t>0.5345</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -3963,26 +4492,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.19</t>
+          <t>3.54</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.36</t>
+          <t>93.00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.24</t>
+          <t>5.19</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2196</t>
+          <t>0.1837</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -3991,6 +4520,138 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>450001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国富中国收益混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.18</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>63.07</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4896</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>450011</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国富研究精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2196</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4082,136 +4743,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>450001</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>国富中国收益混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>6.22</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>64.26</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.15</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2581</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>450011</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>国富研究精选混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>5.97</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.17</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.23</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2525</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>